--- a/use_cases.xlsx
+++ b/use_cases.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runar\Desktop\verklegtnamskeid1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0F0547-DD81-49EF-B4BF-4C3A5F621CCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44986928-878C-4B78-8075-FA732AA530DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
   </bookViews>
   <sheets>
     <sheet name="Starfsmannaskráning" sheetId="3" r:id="rId1"/>
     <sheet name="Áfangastaðsskráning" sheetId="2" r:id="rId2"/>
     <sheet name="Vinnuferðaskráning" sheetId="4" r:id="rId3"/>
-    <sheet name="Endurtekin skráning" sheetId="5" r:id="rId4"/>
-    <sheet name="Skráning starfsmanns í vinnufer" sheetId="6" r:id="rId5"/>
-    <sheet name="Birting Starfsmanna" sheetId="7" r:id="rId6"/>
-    <sheet name="Birting upplýsinga um ákveðinn " sheetId="9" r:id="rId7"/>
-    <sheet name="Breytin upplýsinga um starfsman" sheetId="8" r:id="rId8"/>
-    <sheet name="Birting allra áfangastaða (2)" sheetId="10" r:id="rId9"/>
+    <sheet name="Endurtekin vinnuferð" sheetId="5" r:id="rId4"/>
+    <sheet name="Birting Starfsmanna" sheetId="7" r:id="rId5"/>
+    <sheet name="Birting upplýsinga um starfsm " sheetId="9" r:id="rId6"/>
+    <sheet name="Breyting upplýsinga um starfsm" sheetId="8" r:id="rId7"/>
+    <sheet name="Birting allra áfangastaða" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -86,33 +85,15 @@
     <t>Mannari</t>
   </si>
   <si>
-    <t>Nýr starfmaður er til í kerfinu</t>
-  </si>
-  <si>
     <t>Krafa 2 í kröfulista</t>
   </si>
   <si>
     <t>Skipuleggjari</t>
   </si>
   <si>
-    <t>Áfangastaður er skráður í kerfi</t>
-  </si>
-  <si>
     <t>4a. Það vantar upplýsingar, skref 3 endurtekur sig</t>
   </si>
   <si>
-    <t>Vinnuferðaskráning</t>
-  </si>
-  <si>
-    <t>Krafa 3 í kröfulista</t>
-  </si>
-  <si>
-    <t>Vinnuferð er skráð í kerfi</t>
-  </si>
-  <si>
-    <t>Notandi er að skrá vinnuferð</t>
-  </si>
-  <si>
     <t>Skráning vinnuferðar</t>
   </si>
   <si>
@@ -120,32 +101,6 @@
   </si>
   <si>
     <t>Skráning starfsmanns</t>
-  </si>
-  <si>
-    <t>Vinnuferðir eru skráðar í kerfi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi velur hvenær og hvort vinnuferð endurtekur sig
-</t>
-  </si>
-  <si>
-    <t>Krafa 4 og 5 í kröfulista, use case 3</t>
-  </si>
-  <si>
-    <t>Skráning starfsmanns í vinnuferð</t>
-  </si>
-  <si>
-    <t>Krafa 6 í kröfulista, use case 3</t>
-  </si>
-  <si>
-    <t>Það eru til starfsmenn í kerfinu</t>
-  </si>
-  <si>
-    <t>Starfsmenn eru skráðir á tiltekna vinnuferð</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi velur starfsmenn fyrir vinnuferðina
-</t>
   </si>
   <si>
     <t>Birting starfsmanna</t>
@@ -163,9 +118,6 @@
   </si>
   <si>
     <t>Kerfið birtir upplýsingar um viðeigandi starfsmenn</t>
-  </si>
-  <si>
-    <t>Það eru til a.m.k. einn starfmaður í kerfinu</t>
   </si>
   <si>
     <t>Krafa 7, 8 og 9 í kröfulista</t>
@@ -199,9 +151,6 @@
 4. Notandi breytir upplýsingum valda starfsmannsins</t>
   </si>
   <si>
-    <t>Það eru til a.m.k. ein vinnuferð í kerfinu</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Notandi tengist viðmóti
 2. Notandi velur að skrá áfangastað
 3. Notandi setur inn viðeigandi upplýsingar um áfangastaðinn
@@ -209,23 +158,7 @@
 </t>
   </si>
   <si>
-    <t>1. Notandi tengist viðmóti
-2. Velja að skrá skuli vinnuferð
-3. Notandinn setur inn viðeigandi upplýsingar
-4. Notandi setur inn upplýsingar varðandi endurtekna skráningu (use case 4)
-5. Notandi staðfestir skráningu</t>
-  </si>
-  <si>
-    <t>5a. Það vantar upplýsingar, skref 3 endurtekur sig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vatnar </t>
-  </si>
-  <si>
     <t>Kerfið breytir upplýsingum um ákveðinn starfsmann</t>
-  </si>
-  <si>
-    <t>Það er til a.m.k. einn starfsmaður í kerfinu</t>
   </si>
   <si>
     <t>Kerfið birtir upplýsingar um ákveðinn starfsmann</t>
@@ -243,6 +176,57 @@
     <t xml:space="preserve">1. Notandi tengist viðmóti
 2. Notandi velur að birta alla áfangastaði
 </t>
+  </si>
+  <si>
+    <t>Endurtekning á vinnuferð</t>
+  </si>
+  <si>
+    <t>Krafa 4 og 5 í kröfulista</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti ein vinnuferð er skráð í kerfið</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að endurtaka skráningu
+3. Notandi velur vinnuferð
+4. Notandi setur inn viðeigandi upplýsingar 
+</t>
+  </si>
+  <si>
+    <t>Notandi lætur tiltekna vinnuferð endurtaka sig ákveðin skipti eða reglulega</t>
+  </si>
+  <si>
+    <t>Valin vinnuferð endurtekur sig</t>
+  </si>
+  <si>
+    <t>1. Notandi tengist viðmóti
+2. Notandi velur að skrá vinnuferð
+3. Notandi velur starfsmenn fyrir ferðina
+4. Notandi setur inn nauðsynlegar upplýsingar
+5. Notandi staðfestir skráningu</t>
+  </si>
+  <si>
+    <t>3a. Enginn starfsmaður valinn, skref 4 fer í gang
+5a. Það vantar nauðsynlegar upplýsingar, skref 4 endurtekur sig</t>
+  </si>
+  <si>
+    <t>Krafa 3 og 6 í kröfulista</t>
+  </si>
+  <si>
+    <t>Nýr áfangastaður er skráður í kerfinu</t>
+  </si>
+  <si>
+    <t>Nýr starfsmaður er skráður í kerfið</t>
+  </si>
+  <si>
+    <t>Ný vinnuferð er skráð í kerfið</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti einn starfmaður er skráður í kerfið</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti einn áfangastaður er skráður í kerfið</t>
   </si>
 </sst>
 </file>
@@ -729,30 +713,30 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -760,13 +744,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -774,7 +758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -782,7 +766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -790,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -798,43 +782,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
     </row>
   </sheetData>
@@ -847,30 +831,30 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -878,13 +862,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -892,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -900,50 +884,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -956,30 +940,30 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -987,13 +971,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1009,50 +993,50 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1065,30 +1049,30 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1096,13 +1080,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1110,7 +1096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1118,47 +1104,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1170,34 +1156,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18ACA551-753F-477B-AA8D-C9BE021C3E94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE41DA2E-C5DA-4029-B0E4-17B73C32028E}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1205,13 +1191,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1227,15 +1213,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1243,37 +1229,35 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1281,34 +1265,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE41DA2E-C5DA-4029-B0E4-17B73C32028E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104FCCB8-AB3A-4A79-BA4C-5BAC16D11B4D}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1316,13 +1300,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,7 +1314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1338,47 +1322,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1390,34 +1374,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104FCCB8-AB3A-4A79-BA4C-5BAC16D11B4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705F9A2E-AE11-4763-90A9-A2F3D2EFF989}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1425,13 +1409,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1447,51 +1431,53 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1499,34 +1485,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705F9A2E-AE11-4763-90A9-A2F3D2EFF989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B244B51-B66A-4010-824A-7B2114DECC3C}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1534,13 +1520,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1548,7 +1534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1556,158 +1542,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B244B51-B66A-4010-824A-7B2114DECC3C}">
-  <dimension ref="B2:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
